--- a/Game Design/Creatures.xlsx
+++ b/Game Design/Creatures.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Documents\GitHub\BeforeLegends\Game Design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name Enemy</t>
   </si>
@@ -57,9 +52,6 @@
   </si>
   <si>
     <t>Big reptiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big cats </t>
   </si>
   <si>
     <t>Rhinos (hairy)</t>
@@ -456,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,34 +537,28 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Game Design/Creatures.xlsx
+++ b/Game Design/Creatures.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12960"/>
+    <workbookView xWindow="-60" yWindow="-120" windowWidth="13215" windowHeight="11745"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
+    <sheet name="OldList" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Name Enemy</t>
   </si>
@@ -79,6 +80,42 @@
   </si>
   <si>
     <t>Brontotherium</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Texture</t>
+  </si>
+  <si>
+    <t>dmg</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Horned Lion</t>
+  </si>
+  <si>
+    <t>Brown Basic</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Anubis</t>
+  </si>
+  <si>
+    <t>Mammoth</t>
   </si>
 </sst>
 </file>
@@ -115,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -166,15 +203,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
@@ -448,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,9 +533,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/Game Design/Creatures.xlsx
+++ b/Game Design/Creatures.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
     <sheet name="OldList" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle2!$A$1:$L$16</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Name Enemy</t>
   </si>
@@ -100,22 +103,46 @@
     <t>Horned Lion</t>
   </si>
   <si>
-    <t>Brown Basic</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>Anubis</t>
-  </si>
-  <si>
     <t>Mammoth</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>glory</t>
+  </si>
+  <si>
+    <t>sp. Att 1</t>
+  </si>
+  <si>
+    <t>sp. Att 2</t>
+  </si>
+  <si>
+    <t>Jackal</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>jungle</t>
+  </si>
+  <si>
+    <t>silver</t>
   </si>
 </sst>
 </file>
@@ -152,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -240,18 +267,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
@@ -259,6 +303,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0909"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -525,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +593,7 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -552,104 +601,389 @@
         <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L16"/>
+  <conditionalFormatting sqref="C2:C16">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{BD974CD7-AFE7-4B3F-A550-14DD0621E763}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C2:C16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Game Design/Creatures.xlsx
+++ b/Game Design/Creatures.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>Name Enemy</t>
   </si>
@@ -143,6 +143,51 @@
   </si>
   <si>
     <t>silver</t>
+  </si>
+  <si>
+    <t>double damage attack</t>
+  </si>
+  <si>
+    <t>debuffing attack</t>
+  </si>
+  <si>
+    <t>Poisoning attack ( extended damage)</t>
+  </si>
+  <si>
+    <t>freeze (paralizing attack)</t>
+  </si>
+  <si>
+    <t>doubedamage attack</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>Posoning Trunk (dmg 3 rounds)</t>
+  </si>
+  <si>
+    <t>Eye for an Eye (reflects damage)</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Trample (doubledamage)</t>
+  </si>
+  <si>
+    <t>healing wind (heal self)</t>
+  </si>
+  <si>
+    <t>Lion Pride (buff strength)</t>
+  </si>
+  <si>
+    <t>strength of the Jungle(armor buff)</t>
+  </si>
+  <si>
+    <t>Steal life (takes HP from player)</t>
+  </si>
+  <si>
+    <t>Curse (debuff)</t>
   </si>
 </sst>
 </file>
@@ -285,17 +330,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
@@ -574,7 +648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,12 +659,15 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="9"/>
+    <col min="11" max="11" width="39.5703125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -600,276 +677,468 @@
       <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="D2" s="14">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14">
+        <v>16</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14">
+        <v>3</v>
+      </c>
+      <c r="H2" s="14">
+        <v>2</v>
+      </c>
+      <c r="I2" s="14">
+        <v>50</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>16</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>3</v>
+      </c>
+      <c r="H3" s="14">
+        <v>2</v>
+      </c>
+      <c r="I3" s="14">
+        <v>50</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2">
+        <v>38</v>
+      </c>
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>16</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>3</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2</v>
+      </c>
+      <c r="I4" s="14">
+        <v>50</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>16</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>3</v>
+      </c>
+      <c r="H5" s="14">
+        <v>2</v>
+      </c>
+      <c r="I5" s="14">
+        <v>50</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>16</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>3</v>
+      </c>
+      <c r="H6" s="14">
+        <v>2</v>
+      </c>
+      <c r="I6" s="14">
+        <v>50</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>16</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>3</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2</v>
+      </c>
+      <c r="I7" s="14">
+        <v>50</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15">
+        <v>30</v>
+      </c>
+      <c r="F8" s="15">
+        <v>6</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2</v>
+      </c>
+      <c r="I8" s="15">
+        <v>100</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15">
+        <v>10</v>
+      </c>
+      <c r="E9" s="15">
+        <v>30</v>
+      </c>
+      <c r="F9" s="15">
+        <v>6</v>
+      </c>
+      <c r="G9" s="15">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2</v>
+      </c>
+      <c r="I9" s="15">
+        <v>100</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15">
+        <v>10</v>
+      </c>
+      <c r="E10" s="15">
+        <v>30</v>
+      </c>
+      <c r="F10" s="15">
+        <v>6</v>
+      </c>
+      <c r="G10" s="15">
+        <v>2</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2</v>
+      </c>
+      <c r="I10" s="15">
+        <v>100</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15">
+        <v>30</v>
+      </c>
+      <c r="F11" s="15">
+        <v>6</v>
+      </c>
+      <c r="G11" s="15">
+        <v>2</v>
+      </c>
+      <c r="H11" s="14">
+        <v>2</v>
+      </c>
+      <c r="I11" s="15">
+        <v>100</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="15">
+        <v>15</v>
+      </c>
+      <c r="E12" s="15">
+        <v>70</v>
+      </c>
+      <c r="F12" s="15">
+        <v>10</v>
+      </c>
+      <c r="G12" s="15">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15">
+        <v>2</v>
+      </c>
+      <c r="I12" s="15">
+        <v>200</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15">
+        <v>15</v>
+      </c>
+      <c r="E13" s="15">
+        <v>70</v>
+      </c>
+      <c r="F13" s="15">
+        <v>10</v>
+      </c>
+      <c r="G13" s="15">
+        <v>3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>2</v>
+      </c>
+      <c r="I13" s="15">
+        <v>200</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -878,38 +1147,70 @@
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="C14" s="8">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15">
+        <v>15</v>
+      </c>
+      <c r="E14" s="15">
+        <v>70</v>
+      </c>
+      <c r="F14" s="15">
+        <v>10</v>
+      </c>
+      <c r="G14" s="15">
+        <v>3</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2</v>
+      </c>
+      <c r="I14" s="15">
+        <v>200</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3</v>
+      </c>
+      <c r="D15" s="15">
+        <v>15</v>
+      </c>
+      <c r="E15" s="15">
+        <v>70</v>
+      </c>
+      <c r="F15" s="15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="15">
+        <v>200</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -918,30 +1219,42 @@
       <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="C16" s="8">
+        <v>3</v>
+      </c>
+      <c r="D16" s="15">
+        <v>15</v>
+      </c>
+      <c r="E16" s="15">
+        <v>70</v>
+      </c>
+      <c r="F16" s="15">
+        <v>10</v>
+      </c>
+      <c r="G16" s="15">
+        <v>3</v>
+      </c>
+      <c r="H16" s="15">
+        <v>2</v>
+      </c>
+      <c r="I16" s="15">
+        <v>200</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L16"/>
+  <autoFilter ref="A1:L16">
+    <sortState ref="A2:L16">
+      <sortCondition ref="C1:C16"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -958,6 +1271,14 @@
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/Game Design/Creatures.xlsx
+++ b/Game Design/Creatures.xlsx
@@ -648,7 +648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -659,7 +659,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="15">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F12" s="15">
         <v>10</v>
@@ -1118,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="15">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F13" s="15">
         <v>10</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="15">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F14" s="15">
         <v>10</v>
@@ -1190,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="15">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F15" s="15">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="15">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F16" s="15">
         <v>10</v>

--- a/Game Design/Creatures.xlsx
+++ b/Game Design/Creatures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-120" windowWidth="13215" windowHeight="11745"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="20685" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -648,7 +648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -659,7 +659,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="14">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F2" s="14">
         <v>1</v>
@@ -736,7 +736,10 @@
       <c r="I2" s="14">
         <v>50</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="14">
+        <f>E2*(D2+F2)</f>
+        <v>90</v>
+      </c>
       <c r="K2" s="14" t="s">
         <v>40</v>
       </c>
@@ -755,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="14">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F3" s="14">
         <v>1</v>
@@ -772,7 +775,10 @@
       <c r="I3" s="14">
         <v>50</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J16" si="0">E3*(D3+F3)</f>
+        <v>140</v>
+      </c>
       <c r="K3" s="15" t="s">
         <v>41</v>
       </c>
@@ -791,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="14">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
@@ -808,7 +814,10 @@
       <c r="I4" s="14">
         <v>50</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="14">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
       <c r="K4" s="15" t="s">
         <v>42</v>
       </c>
@@ -827,10 +836,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="14">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
@@ -844,7 +853,10 @@
       <c r="I5" s="14">
         <v>50</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="14">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
       <c r="K5" s="15" t="s">
         <v>43</v>
       </c>
@@ -863,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="14">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>
@@ -880,7 +892,10 @@
       <c r="I6" s="14">
         <v>50</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
       <c r="K6" s="15" t="s">
         <v>52</v>
       </c>
@@ -899,10 +914,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="14">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
@@ -916,7 +931,10 @@
       <c r="I7" s="14">
         <v>50</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="14">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
       <c r="K7" s="16" t="s">
         <v>48</v>
       </c>
@@ -935,16 +953,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="15">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F8" s="15">
-        <v>6</v>
-      </c>
-      <c r="G8" s="15">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3</v>
       </c>
       <c r="H8" s="14">
         <v>2</v>
@@ -952,7 +970,10 @@
       <c r="I8" s="15">
         <v>100</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
       <c r="K8" s="15" t="s">
         <v>43</v>
       </c>
@@ -971,16 +992,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" s="15">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F9" s="15">
-        <v>6</v>
-      </c>
-      <c r="G9" s="15">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G9" s="14">
+        <v>3</v>
       </c>
       <c r="H9" s="14">
         <v>2</v>
@@ -988,7 +1009,10 @@
       <c r="I9" s="15">
         <v>100</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="14">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
       <c r="K9" s="15" t="s">
         <v>54</v>
       </c>
@@ -1007,16 +1031,16 @@
         <v>2</v>
       </c>
       <c r="D10" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="15">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F10" s="15">
-        <v>6</v>
-      </c>
-      <c r="G10" s="15">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G10" s="14">
+        <v>3</v>
       </c>
       <c r="H10" s="14">
         <v>2</v>
@@ -1024,7 +1048,10 @@
       <c r="I10" s="15">
         <v>100</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="14">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
       <c r="K10" s="15" t="s">
         <v>49</v>
       </c>
@@ -1043,16 +1070,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="15">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F11" s="15">
-        <v>6</v>
-      </c>
-      <c r="G11" s="15">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3</v>
       </c>
       <c r="H11" s="14">
         <v>2</v>
@@ -1060,7 +1087,10 @@
       <c r="I11" s="15">
         <v>100</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="14">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
       <c r="K11" s="15" t="s">
         <v>48</v>
       </c>
@@ -1079,15 +1109,15 @@
         <v>3</v>
       </c>
       <c r="D12" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F12" s="15">
-        <v>10</v>
-      </c>
-      <c r="G12" s="15">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14">
         <v>3</v>
       </c>
       <c r="H12" s="15">
@@ -1096,7 +1126,10 @@
       <c r="I12" s="15">
         <v>200</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="14">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
       <c r="K12" s="15" t="s">
         <v>47</v>
       </c>
@@ -1115,15 +1148,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F13" s="15">
-        <v>10</v>
-      </c>
-      <c r="G13" s="15">
+        <v>5</v>
+      </c>
+      <c r="G13" s="14">
         <v>3</v>
       </c>
       <c r="H13" s="15">
@@ -1132,7 +1165,10 @@
       <c r="I13" s="15">
         <v>200</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="14">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
       <c r="K13" s="15" t="s">
         <v>53</v>
       </c>
@@ -1151,15 +1187,15 @@
         <v>3</v>
       </c>
       <c r="D14" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E14" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F14" s="15">
-        <v>10</v>
-      </c>
-      <c r="G14" s="15">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14">
         <v>3</v>
       </c>
       <c r="H14" s="15">
@@ -1168,7 +1204,10 @@
       <c r="I14" s="15">
         <v>200</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="14">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
       <c r="K14" s="15" t="s">
         <v>41</v>
       </c>
@@ -1187,15 +1226,15 @@
         <v>3</v>
       </c>
       <c r="D15" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F15" s="15">
-        <v>10</v>
-      </c>
-      <c r="G15" s="15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="14">
         <v>3</v>
       </c>
       <c r="H15" s="15">
@@ -1204,7 +1243,10 @@
       <c r="I15" s="15">
         <v>200</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="14">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
       <c r="K15" s="15" t="s">
         <v>43</v>
       </c>
@@ -1223,15 +1265,15 @@
         <v>3</v>
       </c>
       <c r="D16" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F16" s="15">
-        <v>10</v>
-      </c>
-      <c r="G16" s="15">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14">
         <v>3</v>
       </c>
       <c r="H16" s="15">
@@ -1240,7 +1282,10 @@
       <c r="I16" s="15">
         <v>200</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="14">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
       <c r="K16" s="15" t="s">
         <v>46</v>
       </c>

--- a/Game Design/Creatures.xlsx
+++ b/Game Design/Creatures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="20685" windowHeight="11685"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28860" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -648,7 +648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -659,7 +659,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +668,7 @@
     <col min="3" max="3" width="11.42578125" style="9"/>
     <col min="11" max="11" width="39.5703125" style="9" customWidth="1"/>
     <col min="12" max="12" width="41.140625" customWidth="1"/>
+    <col min="13" max="13" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -776,7 +777,7 @@
         <v>50</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J16" si="0">E3*(D3+F3)</f>
+        <f>E3*(D3+F3)</f>
         <v>140</v>
       </c>
       <c r="K3" s="15" t="s">
@@ -815,7 +816,7 @@
         <v>50</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" si="0"/>
+        <f>E4*(D4+F4)</f>
         <v>140</v>
       </c>
       <c r="K4" s="15" t="s">
@@ -827,22 +828,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="14">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F5" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="14">
         <v>3</v>
@@ -851,37 +852,37 @@
         <v>2</v>
       </c>
       <c r="I5" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J5" s="14">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f>E5*(D5+F5)</f>
+        <v>560</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E6" s="14">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F6" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="14">
         <v>3</v>
@@ -890,17 +891,17 @@
         <v>2</v>
       </c>
       <c r="I6" s="14">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J6" s="14">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f>E6*(D6+F6)</f>
+        <v>1500</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -908,7 +909,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -932,11 +933,11 @@
         <v>50</v>
       </c>
       <c r="J7" s="14">
-        <f t="shared" si="0"/>
+        <f>E7*(D7+F7)</f>
         <v>140</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>50</v>
@@ -944,22 +945,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="15">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F8" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" s="14">
         <v>3</v>
@@ -968,17 +969,17 @@
         <v>2</v>
       </c>
       <c r="I8" s="15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" si="0"/>
-        <v>560</v>
+        <f>E8*(D8+F8)</f>
+        <v>140</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -986,19 +987,19 @@
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>3</v>
+      </c>
+      <c r="E9" s="15">
         <v>35</v>
       </c>
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="15">
-        <v>5</v>
-      </c>
-      <c r="E9" s="15">
-        <v>70</v>
-      </c>
       <c r="F9" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="14">
         <v>3</v>
@@ -1007,14 +1008,14 @@
         <v>2</v>
       </c>
       <c r="I9" s="15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J9" s="14">
-        <f t="shared" si="0"/>
-        <v>560</v>
+        <f>E9*(D9+F9)</f>
+        <v>140</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>50</v>
@@ -1022,7 +1023,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
@@ -1049,35 +1050,35 @@
         <v>100</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="0"/>
+        <f>E10*(D10+F10)</f>
         <v>560</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="15">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15">
+        <v>100</v>
+      </c>
+      <c r="F11" s="15">
         <v>5</v>
       </c>
-      <c r="E11" s="15">
-        <v>70</v>
-      </c>
-      <c r="F11" s="15">
-        <v>3</v>
-      </c>
       <c r="G11" s="14">
         <v>3</v>
       </c>
@@ -1085,95 +1086,95 @@
         <v>2</v>
       </c>
       <c r="I11" s="15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" si="0"/>
-        <v>560</v>
+        <f>E11*(D11+F11)</f>
+        <v>1500</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="15">
+        <v>70</v>
+      </c>
+      <c r="F12" s="15">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15">
+        <v>2</v>
+      </c>
+      <c r="I12" s="15">
         <v>100</v>
       </c>
-      <c r="F12" s="15">
-        <v>5</v>
-      </c>
-      <c r="G12" s="14">
-        <v>3</v>
-      </c>
-      <c r="H12" s="15">
-        <v>2</v>
-      </c>
-      <c r="I12" s="15">
-        <v>200</v>
-      </c>
       <c r="J12" s="14">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <f>E12*(D12+F12)</f>
+        <v>560</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="15">
+        <v>70</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3</v>
+      </c>
+      <c r="G13" s="14">
+        <v>3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>2</v>
+      </c>
+      <c r="I13" s="15">
         <v>100</v>
       </c>
-      <c r="F13" s="15">
-        <v>5</v>
-      </c>
-      <c r="G13" s="14">
-        <v>3</v>
-      </c>
-      <c r="H13" s="15">
-        <v>2</v>
-      </c>
-      <c r="I13" s="15">
-        <v>200</v>
-      </c>
       <c r="J13" s="14">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <f>E13*(D13+F13)</f>
+        <v>560</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1205,7 +1206,7 @@
         <v>200</v>
       </c>
       <c r="J14" s="14">
-        <f t="shared" si="0"/>
+        <f>E14*(D14+F14)</f>
         <v>1500</v>
       </c>
       <c r="K14" s="15" t="s">
@@ -1244,7 +1245,7 @@
         <v>200</v>
       </c>
       <c r="J15" s="14">
-        <f t="shared" si="0"/>
+        <f>E15*(D15+F15)</f>
         <v>1500</v>
       </c>
       <c r="K15" s="15" t="s">
@@ -1283,7 +1284,7 @@
         <v>200</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" si="0"/>
+        <f>E16*(D16+F16)</f>
         <v>1500</v>
       </c>
       <c r="K16" s="15" t="s">
@@ -1296,7 +1297,7 @@
   </sheetData>
   <autoFilter ref="A1:L16">
     <sortState ref="A2:L16">
-      <sortCondition ref="C1:C16"/>
+      <sortCondition ref="A1:A16"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C2:C16">

--- a/Game Design/Creatures.xlsx
+++ b/Game Design/Creatures.xlsx
@@ -11,7 +11,7 @@
     <sheet name="OldList" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle2!$A$1:$L$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle2!$A$1:$M$17</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>Name Enemy</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Curse (debuff)</t>
+  </si>
+  <si>
+    <t>Primary Tile</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -325,16 +328,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -370,6 +411,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
@@ -648,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -656,652 +700,706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="9"/>
-    <col min="11" max="11" width="39.5703125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="41.140625" customWidth="1"/>
-    <col min="13" max="13" width="40" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="8"/>
+    <col min="12" max="12" width="39.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="41.140625" customWidth="1"/>
+    <col min="14" max="14" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="14">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
         <v>30</v>
       </c>
-      <c r="F2" s="14">
+      <c r="G2" s="13">
         <v>1</v>
       </c>
-      <c r="G2" s="14">
-        <v>3</v>
-      </c>
-      <c r="H2" s="14">
-        <v>2</v>
-      </c>
-      <c r="I2" s="14">
+      <c r="H2" s="13">
+        <v>3</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13">
         <v>50</v>
       </c>
-      <c r="J2" s="14">
-        <f>E2*(D2+F2)</f>
+      <c r="K2" s="13">
+        <f t="shared" ref="K2:K17" si="0">F2*(E2+G2)</f>
         <v>90</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="14">
-        <v>3</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13">
         <v>35</v>
       </c>
-      <c r="F3" s="14">
+      <c r="G3" s="13">
         <v>1</v>
       </c>
-      <c r="G3" s="14">
-        <v>3</v>
-      </c>
-      <c r="H3" s="14">
-        <v>2</v>
-      </c>
-      <c r="I3" s="14">
+      <c r="H3" s="13">
+        <v>3</v>
+      </c>
+      <c r="I3" s="13">
+        <v>2</v>
+      </c>
+      <c r="J3" s="13">
         <v>50</v>
       </c>
-      <c r="J3" s="14">
-        <f>E3*(D3+F3)</f>
+      <c r="K3" s="13">
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="14">
-        <v>3</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13">
         <v>35</v>
       </c>
-      <c r="F4" s="14">
+      <c r="G4" s="13">
         <v>1</v>
       </c>
-      <c r="G4" s="14">
-        <v>3</v>
-      </c>
-      <c r="H4" s="14">
-        <v>2</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="H4" s="13">
+        <v>3</v>
+      </c>
+      <c r="I4" s="13">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13">
         <v>50</v>
       </c>
-      <c r="J4" s="14">
-        <f>E4*(D4+F4)</f>
+      <c r="K4" s="13">
+        <f t="shared" ref="K4" si="1">F4*(E4+G4)</f>
         <v>140</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13">
+        <v>35</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3</v>
+      </c>
+      <c r="I5" s="13">
+        <v>2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>50</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
         <v>5</v>
       </c>
-      <c r="E5" s="14">
+      <c r="F6" s="13">
         <v>70</v>
       </c>
-      <c r="F5" s="14">
-        <v>3</v>
-      </c>
-      <c r="G5" s="14">
-        <v>3</v>
-      </c>
-      <c r="H5" s="14">
-        <v>2</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="G6" s="13">
+        <v>3</v>
+      </c>
+      <c r="H6" s="13">
+        <v>3</v>
+      </c>
+      <c r="I6" s="13">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13">
         <v>100</v>
       </c>
-      <c r="J5" s="14">
-        <f>E5*(D5+F5)</f>
+      <c r="K6" s="13">
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13">
         <v>10</v>
       </c>
-      <c r="E6" s="14">
+      <c r="F7" s="13">
         <v>100</v>
       </c>
-      <c r="F6" s="14">
+      <c r="G7" s="13">
         <v>5</v>
       </c>
-      <c r="G6" s="14">
-        <v>3</v>
-      </c>
-      <c r="H6" s="14">
-        <v>2</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="H7" s="13">
+        <v>3</v>
+      </c>
+      <c r="I7" s="13">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13">
         <v>200</v>
       </c>
-      <c r="J6" s="14">
-        <f>E6*(D6+F6)</f>
+      <c r="K7" s="13">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="14">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="E8" s="13">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13">
         <v>35</v>
       </c>
-      <c r="F7" s="14">
+      <c r="G8" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="14">
-        <v>3</v>
-      </c>
-      <c r="H7" s="14">
-        <v>2</v>
-      </c>
-      <c r="I7" s="14">
+      <c r="H8" s="13">
+        <v>3</v>
+      </c>
+      <c r="I8" s="13">
+        <v>2</v>
+      </c>
+      <c r="J8" s="13">
         <v>50</v>
       </c>
-      <c r="J7" s="14">
-        <f>E7*(D7+F7)</f>
+      <c r="K8" s="13">
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="L8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="M8" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="8">
+      <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="15">
-        <v>3</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="E9" s="14">
+        <v>3</v>
+      </c>
+      <c r="F9" s="14">
         <v>35</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G9" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="14">
-        <v>3</v>
-      </c>
-      <c r="H8" s="14">
-        <v>2</v>
-      </c>
-      <c r="I8" s="15">
+      <c r="H9" s="13">
+        <v>3</v>
+      </c>
+      <c r="I9" s="13">
+        <v>2</v>
+      </c>
+      <c r="J9" s="14">
         <v>50</v>
       </c>
-      <c r="J8" s="14">
-        <f>E8*(D8+F8)</f>
+      <c r="K9" s="13">
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="15">
-        <v>3</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="E10" s="14">
+        <v>3</v>
+      </c>
+      <c r="F10" s="14">
         <v>35</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="14">
-        <v>3</v>
-      </c>
-      <c r="H9" s="14">
-        <v>2</v>
-      </c>
-      <c r="I9" s="15">
+      <c r="H10" s="13">
+        <v>3</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2</v>
+      </c>
+      <c r="J10" s="14">
         <v>50</v>
       </c>
-      <c r="J9" s="14">
-        <f>E9*(D9+F9)</f>
+      <c r="K10" s="13">
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="L10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="8">
-        <v>2</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
         <v>5</v>
       </c>
-      <c r="E10" s="15">
+      <c r="F11" s="14">
         <v>70</v>
       </c>
-      <c r="F10" s="15">
-        <v>3</v>
-      </c>
-      <c r="G10" s="14">
-        <v>3</v>
-      </c>
-      <c r="H10" s="14">
-        <v>2</v>
-      </c>
-      <c r="I10" s="15">
+      <c r="G11" s="14">
+        <v>3</v>
+      </c>
+      <c r="H11" s="13">
+        <v>3</v>
+      </c>
+      <c r="I11" s="13">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14">
         <v>100</v>
       </c>
-      <c r="J10" s="14">
-        <f>E10*(D10+F10)</f>
+      <c r="K11" s="13">
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="M11" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8">
-        <v>3</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14">
         <v>10</v>
       </c>
-      <c r="E11" s="15">
+      <c r="F12" s="14">
         <v>100</v>
       </c>
-      <c r="F11" s="15">
+      <c r="G12" s="14">
         <v>5</v>
       </c>
-      <c r="G11" s="14">
-        <v>3</v>
-      </c>
-      <c r="H11" s="14">
-        <v>2</v>
-      </c>
-      <c r="I11" s="15">
+      <c r="H12" s="13">
+        <v>3</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2</v>
+      </c>
+      <c r="J12" s="14">
         <v>200</v>
       </c>
-      <c r="J11" s="14">
-        <f>E11*(D11+F11)</f>
+      <c r="K12" s="13">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="M12" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8">
-        <v>2</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14">
         <v>5</v>
       </c>
-      <c r="E12" s="15">
+      <c r="F13" s="14">
         <v>70</v>
       </c>
-      <c r="F12" s="15">
-        <v>3</v>
-      </c>
-      <c r="G12" s="14">
-        <v>3</v>
-      </c>
-      <c r="H12" s="15">
-        <v>2</v>
-      </c>
-      <c r="I12" s="15">
+      <c r="G13" s="14">
+        <v>3</v>
+      </c>
+      <c r="H13" s="13">
+        <v>3</v>
+      </c>
+      <c r="I13" s="14">
+        <v>2</v>
+      </c>
+      <c r="J13" s="14">
         <v>100</v>
       </c>
-      <c r="J12" s="14">
-        <f>E12*(D12+F12)</f>
+      <c r="K13" s="13">
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="L13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="M13" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14">
         <v>5</v>
       </c>
-      <c r="E13" s="15">
+      <c r="F14" s="14">
         <v>70</v>
       </c>
-      <c r="F13" s="15">
-        <v>3</v>
-      </c>
-      <c r="G13" s="14">
-        <v>3</v>
-      </c>
-      <c r="H13" s="15">
-        <v>2</v>
-      </c>
-      <c r="I13" s="15">
+      <c r="G14" s="14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3</v>
+      </c>
+      <c r="I14" s="14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="14">
         <v>100</v>
       </c>
-      <c r="J13" s="14">
-        <f>E13*(D13+F13)</f>
+      <c r="K14" s="13">
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="M14" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="8">
-        <v>3</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14">
         <v>10</v>
       </c>
-      <c r="E14" s="15">
+      <c r="F15" s="14">
         <v>100</v>
       </c>
-      <c r="F14" s="15">
+      <c r="G15" s="14">
         <v>5</v>
       </c>
-      <c r="G14" s="14">
-        <v>3</v>
-      </c>
-      <c r="H14" s="15">
-        <v>2</v>
-      </c>
-      <c r="I14" s="15">
+      <c r="H15" s="13">
+        <v>3</v>
+      </c>
+      <c r="I15" s="14">
+        <v>2</v>
+      </c>
+      <c r="J15" s="14">
         <v>200</v>
       </c>
-      <c r="J14" s="14">
-        <f>E14*(D14+F14)</f>
+      <c r="K15" s="13">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="L15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="M15" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="8">
-        <v>3</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="14">
         <v>10</v>
       </c>
-      <c r="E15" s="15">
+      <c r="F16" s="14">
         <v>100</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G16" s="14">
         <v>5</v>
       </c>
-      <c r="G15" s="14">
-        <v>3</v>
-      </c>
-      <c r="H15" s="15">
-        <v>2</v>
-      </c>
-      <c r="I15" s="15">
+      <c r="H16" s="13">
+        <v>3</v>
+      </c>
+      <c r="I16" s="14">
+        <v>2</v>
+      </c>
+      <c r="J16" s="14">
         <v>200</v>
       </c>
-      <c r="J15" s="14">
-        <f>E15*(D15+F15)</f>
+      <c r="K16" s="13">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="L16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="M16" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="8">
-        <v>3</v>
-      </c>
-      <c r="D16" s="15">
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+      <c r="E17" s="14">
         <v>10</v>
       </c>
-      <c r="E16" s="15">
+      <c r="F17" s="14">
         <v>100</v>
       </c>
-      <c r="F16" s="15">
+      <c r="G17" s="14">
         <v>5</v>
       </c>
-      <c r="G16" s="14">
-        <v>3</v>
-      </c>
-      <c r="H16" s="15">
-        <v>2</v>
-      </c>
-      <c r="I16" s="15">
+      <c r="H17" s="13">
+        <v>3</v>
+      </c>
+      <c r="I17" s="14">
+        <v>2</v>
+      </c>
+      <c r="J17" s="14">
         <v>200</v>
       </c>
-      <c r="J16" s="14">
-        <f>E16*(D16+F16)</f>
+      <c r="K17" s="13">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="L17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="M17" s="14" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L16">
-    <sortState ref="A2:L16">
-      <sortCondition ref="A1:A16"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="C2:C16">
-    <cfRule type="colorScale" priority="1">
+  <autoFilter ref="A1:M17"/>
+  <conditionalFormatting sqref="D2:D17">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1309,7 +1407,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1319,7 +1417,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1333,7 +1431,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{BD974CD7-AFE7-4B3F-A550-14DD0621E763}">
+          <x14:cfRule type="iconSet" priority="6" id="{BD974CD7-AFE7-4B3F-A550-14DD0621E763}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1346,7 +1444,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C2:C16</xm:sqref>
+          <xm:sqref>D2:D17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Game Design/Creatures.xlsx
+++ b/Game Design/Creatures.xlsx
@@ -11,7 +11,7 @@
     <sheet name="OldList" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle2!$A$1:$M$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle2!$A$1:$M$15</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>Name Enemy</t>
   </si>
@@ -130,21 +130,6 @@
     <t>Jackal</t>
   </si>
   <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>desert</t>
-  </si>
-  <si>
-    <t>jungle</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
     <t>double damage attack</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>doubedamage attack</t>
   </si>
   <si>
-    <t>basic</t>
-  </si>
-  <si>
     <t>Posoning Trunk (dmg 3 rounds)</t>
   </si>
   <si>
@@ -187,10 +169,73 @@
     <t>Steal life (takes HP from player)</t>
   </si>
   <si>
-    <t>Curse (debuff)</t>
-  </si>
-  <si>
     <t>Primary Tile</t>
+  </si>
+  <si>
+    <t>GreenLion</t>
+  </si>
+  <si>
+    <t>Jungle</t>
+  </si>
+  <si>
+    <t>Arctic</t>
+  </si>
+  <si>
+    <t>HornedLion</t>
+  </si>
+  <si>
+    <t>Grassland&amp;Forest</t>
+  </si>
+  <si>
+    <t>Desert&amp;Savannah</t>
+  </si>
+  <si>
+    <t>SilverLion</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>IceJackal</t>
+  </si>
+  <si>
+    <t>GreenJackal</t>
+  </si>
+  <si>
+    <t>DesertJackal</t>
+  </si>
+  <si>
+    <t>IceLion</t>
+  </si>
+  <si>
+    <t>DesertLion</t>
+  </si>
+  <si>
+    <t>SilverJackal</t>
+  </si>
+  <si>
+    <t>MammothParent</t>
+  </si>
+  <si>
+    <t>Grassland</t>
+  </si>
+  <si>
+    <t>GreenMammoth</t>
+  </si>
+  <si>
+    <t>IceMammoth</t>
+  </si>
+  <si>
+    <t>SilverMammoth</t>
+  </si>
+  <si>
+    <t>Forest (all)</t>
+  </si>
+  <si>
+    <t>DesertMammoth</t>
+  </si>
+  <si>
+    <t>Artic&amp;Forest</t>
   </si>
 </sst>
 </file>
@@ -372,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -406,9 +451,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -692,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -700,15 +742,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="8"/>
     <col min="12" max="12" width="39.5703125" style="8" customWidth="1"/>
     <col min="13" max="13" width="41.140625" customWidth="1"/>
@@ -716,8 +760,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>55</v>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -757,21 +801,23 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="16" t="s">
-        <v>25</v>
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -786,23 +832,25 @@
         <v>50</v>
       </c>
       <c r="K2" s="13">
-        <f t="shared" ref="K2:K17" si="0">F2*(E2+G2)</f>
-        <v>90</v>
+        <f>F2*(E2+G2)</f>
+        <v>140</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
@@ -826,32 +874,34 @@
         <v>50</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" si="0"/>
+        <f>F3*(E3+G3)</f>
         <v>140</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="13">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G4" s="13">
         <v>1</v>
@@ -866,23 +916,25 @@
         <v>50</v>
       </c>
       <c r="K4" s="13">
-        <f t="shared" ref="K4" si="1">F4*(E4+G4)</f>
-        <v>140</v>
+        <f>F4*(E4+G4)</f>
+        <v>90</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="17" t="s">
-        <v>25</v>
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -906,195 +958,205 @@
         <v>50</v>
       </c>
       <c r="K5" s="13">
-        <f t="shared" si="0"/>
+        <f>F5*(E5+G5)</f>
         <v>140</v>
       </c>
       <c r="L5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13">
+        <v>35</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>3</v>
+      </c>
+      <c r="I6" s="13">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13">
+        <v>50</v>
+      </c>
+      <c r="K6" s="13">
+        <f>F6*(E6+G6)</f>
+        <v>140</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>5</v>
+      </c>
+      <c r="F7" s="14">
+        <v>70</v>
+      </c>
+      <c r="G7" s="14">
+        <v>3</v>
+      </c>
+      <c r="H7" s="13">
+        <v>3</v>
+      </c>
+      <c r="I7" s="13">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>100</v>
+      </c>
+      <c r="K7" s="13">
+        <f>F7*(E7+G7)</f>
+        <v>560</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>5</v>
+      </c>
+      <c r="F8" s="14">
+        <v>70</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3</v>
+      </c>
+      <c r="H8" s="13">
+        <v>3</v>
+      </c>
+      <c r="I8" s="13">
+        <v>2</v>
+      </c>
+      <c r="J8" s="14">
+        <v>100</v>
+      </c>
+      <c r="K8" s="13">
+        <f>F8*(E8+G8)</f>
+        <v>560</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="M8" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
         <v>5</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F9" s="14">
         <v>70</v>
       </c>
-      <c r="G6" s="13">
-        <v>3</v>
-      </c>
-      <c r="H6" s="13">
-        <v>3</v>
-      </c>
-      <c r="I6" s="13">
-        <v>2</v>
-      </c>
-      <c r="J6" s="13">
+      <c r="G9" s="14">
+        <v>3</v>
+      </c>
+      <c r="H9" s="13">
+        <v>3</v>
+      </c>
+      <c r="I9" s="13">
+        <v>2</v>
+      </c>
+      <c r="J9" s="14">
         <v>100</v>
       </c>
-      <c r="K6" s="13">
-        <f t="shared" si="0"/>
+      <c r="K9" s="13">
+        <f>F9*(E9+G9)</f>
         <v>560</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="M9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="13">
-        <v>10</v>
-      </c>
-      <c r="F7" s="13">
-        <v>100</v>
-      </c>
-      <c r="G7" s="13">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13">
         <v>5</v>
       </c>
-      <c r="H7" s="13">
-        <v>3</v>
-      </c>
-      <c r="I7" s="13">
-        <v>2</v>
-      </c>
-      <c r="J7" s="13">
-        <v>200</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13">
-        <v>35</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
-        <v>3</v>
-      </c>
-      <c r="I8" s="13">
-        <v>2</v>
-      </c>
-      <c r="J8" s="13">
-        <v>50</v>
-      </c>
-      <c r="K8" s="13">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>3</v>
-      </c>
-      <c r="F9" s="14">
-        <v>35</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
-        <v>3</v>
-      </c>
-      <c r="I9" s="13">
-        <v>2</v>
-      </c>
-      <c r="J9" s="14">
-        <v>50</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14">
-        <v>3</v>
-      </c>
-      <c r="F10" s="14">
-        <v>35</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1</v>
+      <c r="F10" s="13">
+        <v>70</v>
+      </c>
+      <c r="G10" s="13">
+        <v>3</v>
       </c>
       <c r="H10" s="13">
         <v>3</v>
@@ -1106,63 +1168,67 @@
         <v>50</v>
       </c>
       <c r="K10" s="13">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f>F10*(E10+G10)</f>
+        <v>560</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="17" t="s">
-        <v>34</v>
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="14">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14">
+        <v>100</v>
+      </c>
+      <c r="G11" s="14">
         <v>5</v>
       </c>
-      <c r="F11" s="14">
-        <v>70</v>
-      </c>
-      <c r="G11" s="14">
-        <v>3</v>
-      </c>
       <c r="H11" s="13">
         <v>3</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="14">
         <v>2</v>
       </c>
       <c r="J11" s="14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K11" s="13">
-        <f t="shared" si="0"/>
-        <v>560</v>
+        <f>F11*(E11+G11)</f>
+        <v>1500</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="17" t="s">
-        <v>34</v>
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7">
         <v>3</v>
@@ -1179,43 +1245,45 @@
       <c r="H12" s="13">
         <v>3</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="14">
         <v>2</v>
       </c>
       <c r="J12" s="14">
         <v>200</v>
       </c>
       <c r="K12" s="13">
-        <f t="shared" si="0"/>
+        <f>F12*(E12+G12)</f>
         <v>1500</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M12" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="17" t="s">
-        <v>26</v>
+      <c r="B13" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="14">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14">
+        <v>100</v>
+      </c>
+      <c r="G13" s="14">
         <v>5</v>
       </c>
-      <c r="F13" s="14">
-        <v>70</v>
-      </c>
-      <c r="G13" s="14">
-        <v>3</v>
-      </c>
       <c r="H13" s="13">
         <v>3</v>
       </c>
@@ -1223,66 +1291,70 @@
         <v>2</v>
       </c>
       <c r="J13" s="14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K13" s="13">
-        <f t="shared" si="0"/>
-        <v>560</v>
+        <f>F13*(E13+G13)</f>
+        <v>1500</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="14">
+        <v>100</v>
+      </c>
+      <c r="G14" s="14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3</v>
+      </c>
+      <c r="I14" s="14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="14">
+        <v>200</v>
+      </c>
+      <c r="K14" s="13">
+        <f>F14*(E14+G14)</f>
+        <v>1500</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="7">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14">
-        <v>5</v>
-      </c>
-      <c r="F14" s="14">
-        <v>70</v>
-      </c>
-      <c r="G14" s="14">
-        <v>3</v>
-      </c>
-      <c r="H14" s="13">
-        <v>3</v>
-      </c>
-      <c r="I14" s="14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="14">
-        <v>100</v>
-      </c>
-      <c r="K14" s="13">
-        <f t="shared" si="0"/>
-        <v>560</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="17" t="s">
-        <v>26</v>
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7">
         <v>3</v>
@@ -1306,100 +1378,24 @@
         <v>200</v>
       </c>
       <c r="K15" s="13">
-        <f t="shared" si="0"/>
+        <f>F15*(E15+G15)</f>
         <v>1500</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>41</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3</v>
-      </c>
-      <c r="E16" s="14">
-        <v>10</v>
-      </c>
-      <c r="F16" s="14">
-        <v>100</v>
-      </c>
-      <c r="G16" s="14">
-        <v>5</v>
-      </c>
-      <c r="H16" s="13">
-        <v>3</v>
-      </c>
-      <c r="I16" s="14">
-        <v>2</v>
-      </c>
-      <c r="J16" s="14">
-        <v>200</v>
-      </c>
-      <c r="K16" s="13">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="7">
-        <v>3</v>
-      </c>
-      <c r="E17" s="14">
-        <v>10</v>
-      </c>
-      <c r="F17" s="14">
-        <v>100</v>
-      </c>
-      <c r="G17" s="14">
-        <v>5</v>
-      </c>
-      <c r="H17" s="13">
-        <v>3</v>
-      </c>
-      <c r="I17" s="14">
-        <v>2</v>
-      </c>
-      <c r="J17" s="14">
-        <v>200</v>
-      </c>
-      <c r="K17" s="13">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M17"/>
-  <conditionalFormatting sqref="D2:D17">
-    <cfRule type="colorScale" priority="5">
+  <autoFilter ref="A1:M15">
+    <sortState ref="A2:M15">
+      <sortCondition ref="D1:D15"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="D2:D15">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1407,7 +1403,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1417,7 +1413,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1431,7 +1427,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{BD974CD7-AFE7-4B3F-A550-14DD0621E763}">
+          <x14:cfRule type="iconSet" priority="23" id="{BD974CD7-AFE7-4B3F-A550-14DD0621E763}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1444,7 +1440,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>D2:D17</xm:sqref>
+          <xm:sqref>D2:D15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Game Design/Creatures.xlsx
+++ b/Game Design/Creatures.xlsx
@@ -11,7 +11,7 @@
     <sheet name="OldList" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle2!$A$1:$M$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle2!$A$1:$M$16</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>Name Enemy</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>Artic&amp;Forest</t>
+  </si>
+  <si>
+    <t>TigerLion</t>
+  </si>
+  <si>
+    <t>Jungle&amp;Savannah</t>
   </si>
 </sst>
 </file>
@@ -259,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +275,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -417,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -456,6 +492,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
@@ -734,7 +776,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -742,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D16" sqref="D16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,14 +843,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
+      <c r="A2" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -836,21 +878,21 @@
         <v>140</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>54</v>
+      <c r="A3" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
@@ -878,14 +920,14 @@
         <v>140</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -927,7 +969,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -969,14 +1011,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>50</v>
+      <c r="A6" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -1004,14 +1046,14 @@
         <v>140</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -1053,14 +1095,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>54</v>
+      <c r="A8" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D8" s="7">
         <v>2</v>
@@ -1088,21 +1130,21 @@
         <v>560</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>64</v>
+      <c r="A9" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
         <v>2</v>
@@ -1123,39 +1165,39 @@
         <v>2</v>
       </c>
       <c r="J9" s="14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K9" s="13">
         <f>F9*(E9+G9)</f>
         <v>560</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14">
         <v>70</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13">
-        <v>5</v>
-      </c>
-      <c r="F10" s="13">
-        <v>70</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="G10" s="14">
         <v>3</v>
       </c>
       <c r="H10" s="13">
@@ -1165,70 +1207,70 @@
         <v>2</v>
       </c>
       <c r="J10" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K10" s="13">
         <f>F10*(E10+G10)</f>
         <v>560</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>51</v>
+      <c r="A11" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>3</v>
-      </c>
-      <c r="E11" s="14">
-        <v>10</v>
-      </c>
-      <c r="F11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5</v>
+      </c>
+      <c r="F11" s="13">
+        <v>70</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3</v>
+      </c>
+      <c r="H11" s="13">
+        <v>3</v>
+      </c>
+      <c r="I11" s="13">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14">
         <v>100</v>
-      </c>
-      <c r="G11" s="14">
-        <v>5</v>
-      </c>
-      <c r="H11" s="13">
-        <v>3</v>
-      </c>
-      <c r="I11" s="14">
-        <v>2</v>
-      </c>
-      <c r="J11" s="14">
-        <v>200</v>
       </c>
       <c r="K11" s="13">
         <f>F11*(E11+G11)</f>
-        <v>1500</v>
+        <v>560</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>68</v>
+      <c r="A12" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D12" s="7">
         <v>3</v>
@@ -1256,14 +1298,14 @@
         <v>1500</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1305,14 +1347,14 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
+      <c r="A14" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7">
         <v>3</v>
@@ -1340,21 +1382,21 @@
         <v>1500</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
+      <c r="A15" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7">
         <v>3</v>
@@ -1382,20 +1424,62 @@
         <v>1500</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="14">
+        <v>10</v>
+      </c>
+      <c r="F16" s="14">
+        <v>100</v>
+      </c>
+      <c r="G16" s="14">
+        <v>5</v>
+      </c>
+      <c r="H16" s="13">
+        <v>3</v>
+      </c>
+      <c r="I16" s="14">
+        <v>2</v>
+      </c>
+      <c r="J16" s="14">
+        <v>200</v>
+      </c>
+      <c r="K16" s="13">
+        <f>F16*(E16+G16)</f>
+        <v>1500</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M15">
-    <sortState ref="A2:M15">
-      <sortCondition ref="D1:D15"/>
+  <autoFilter ref="A1:M16">
+    <sortState ref="A2:M16">
+      <sortCondition ref="D1:D16"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D2:D15">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="D2:D6 D8:D16">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1403,7 +1487,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1413,7 +1497,35 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1427,7 +1539,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BD974CD7-AFE7-4B3F-A550-14DD0621E763}">
+          <x14:cfRule type="iconSet" priority="27" id="{BD974CD7-AFE7-4B3F-A550-14DD0621E763}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1440,7 +1552,23 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>D2:D15</xm:sqref>
+          <xm:sqref>D2:D6 D8:D16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{8245E023-D8F0-4AC1-9879-6199BB1740DC}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
